--- a/Team-Data/2014-15/3-8-2014-15.xlsx
+++ b/Team-Data/2014-15/3-8-2014-15.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -744,7 +811,7 @@
         <v>6.1</v>
       </c>
       <c r="AD2" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AE2" t="n">
         <v>1</v>
@@ -759,7 +826,7 @@
         <v>25</v>
       </c>
       <c r="AI2" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AJ2" t="n">
         <v>26</v>
@@ -789,7 +856,7 @@
         <v>30</v>
       </c>
       <c r="AS2" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AT2" t="n">
         <v>27</v>
@@ -804,10 +871,10 @@
         <v>5</v>
       </c>
       <c r="AX2" t="n">
+        <v>14</v>
+      </c>
+      <c r="AY2" t="n">
         <v>15</v>
-      </c>
-      <c r="AY2" t="n">
-        <v>16</v>
       </c>
       <c r="AZ2" t="n">
         <v>1</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>3-8-2014-15</t>
+          <t>2015-03-08</t>
         </is>
       </c>
     </row>
@@ -848,16 +915,16 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E3" t="n">
         <v>25</v>
       </c>
       <c r="F3" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G3" t="n">
-        <v>0.41</v>
+        <v>0.417</v>
       </c>
       <c r="H3" t="n">
         <v>48.5</v>
@@ -869,37 +936,37 @@
         <v>88.40000000000001</v>
       </c>
       <c r="K3" t="n">
-        <v>0.44</v>
+        <v>0.441</v>
       </c>
       <c r="L3" t="n">
-        <v>8.1</v>
+        <v>8</v>
       </c>
       <c r="M3" t="n">
-        <v>24.4</v>
+        <v>24.2</v>
       </c>
       <c r="N3" t="n">
-        <v>0.333</v>
+        <v>0.33</v>
       </c>
       <c r="O3" t="n">
         <v>15.1</v>
       </c>
       <c r="P3" t="n">
-        <v>20</v>
+        <v>20.1</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.753</v>
+        <v>0.752</v>
       </c>
       <c r="R3" t="n">
-        <v>11.2</v>
+        <v>11.1</v>
       </c>
       <c r="S3" t="n">
-        <v>32.7</v>
+        <v>32.8</v>
       </c>
       <c r="T3" t="n">
-        <v>44</v>
+        <v>43.9</v>
       </c>
       <c r="U3" t="n">
-        <v>24.3</v>
+        <v>24.4</v>
       </c>
       <c r="V3" t="n">
         <v>13.9</v>
@@ -917,25 +984,25 @@
         <v>21</v>
       </c>
       <c r="AA3" t="n">
-        <v>18.2</v>
+        <v>18.3</v>
       </c>
       <c r="AB3" t="n">
-        <v>100.9</v>
+        <v>101</v>
       </c>
       <c r="AC3" t="n">
-        <v>-1.5</v>
+        <v>-1.4</v>
       </c>
       <c r="AD3" t="n">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="AE3" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AF3" t="n">
         <v>20</v>
       </c>
       <c r="AG3" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AH3" t="n">
         <v>10</v>
@@ -956,7 +1023,7 @@
         <v>12</v>
       </c>
       <c r="AN3" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="AO3" t="n">
         <v>28</v>
@@ -974,7 +1041,7 @@
         <v>11</v>
       </c>
       <c r="AT3" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AU3" t="n">
         <v>3</v>
@@ -995,7 +1062,7 @@
         <v>17</v>
       </c>
       <c r="BA3" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="BB3" t="n">
         <v>13</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>3-8-2014-15</t>
+          <t>2015-03-08</t>
         </is>
       </c>
     </row>
@@ -1030,16 +1097,16 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E4" t="n">
         <v>25</v>
       </c>
       <c r="F4" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G4" t="n">
-        <v>0.41</v>
+        <v>0.417</v>
       </c>
       <c r="H4" t="n">
         <v>48.6</v>
@@ -1048,37 +1115,37 @@
         <v>36.7</v>
       </c>
       <c r="J4" t="n">
-        <v>82.2</v>
+        <v>82.3</v>
       </c>
       <c r="K4" t="n">
-        <v>0.447</v>
+        <v>0.446</v>
       </c>
       <c r="L4" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="M4" t="n">
-        <v>20.4</v>
+        <v>20.5</v>
       </c>
       <c r="N4" t="n">
-        <v>0.326</v>
+        <v>0.324</v>
       </c>
       <c r="O4" t="n">
-        <v>16.2</v>
+        <v>16.4</v>
       </c>
       <c r="P4" t="n">
-        <v>21.8</v>
+        <v>21.9</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.745</v>
+        <v>0.748</v>
       </c>
       <c r="R4" t="n">
         <v>10.2</v>
       </c>
       <c r="S4" t="n">
-        <v>32</v>
+        <v>32.1</v>
       </c>
       <c r="T4" t="n">
-        <v>42.1</v>
+        <v>42.4</v>
       </c>
       <c r="U4" t="n">
         <v>20.4</v>
@@ -1087,7 +1154,7 @@
         <v>14.3</v>
       </c>
       <c r="W4" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="X4" t="n">
         <v>4.2</v>
@@ -1096,28 +1163,28 @@
         <v>4.5</v>
       </c>
       <c r="Z4" t="n">
-        <v>20</v>
+        <v>20.1</v>
       </c>
       <c r="AA4" t="n">
-        <v>20</v>
+        <v>20.1</v>
       </c>
       <c r="AB4" t="n">
-        <v>96.3</v>
+        <v>96.5</v>
       </c>
       <c r="AC4" t="n">
         <v>-3.4</v>
       </c>
       <c r="AD4" t="n">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="AE4" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AF4" t="n">
         <v>20</v>
       </c>
       <c r="AG4" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AH4" t="n">
         <v>5</v>
@@ -1141,22 +1208,22 @@
         <v>27</v>
       </c>
       <c r="AO4" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AP4" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AQ4" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AR4" t="n">
         <v>23</v>
       </c>
       <c r="AS4" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AT4" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AU4" t="n">
         <v>27</v>
@@ -1168,7 +1235,7 @@
         <v>24</v>
       </c>
       <c r="AX4" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AY4" t="n">
         <v>9</v>
@@ -1177,7 +1244,7 @@
         <v>15</v>
       </c>
       <c r="BA4" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="BB4" t="n">
         <v>23</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>3-8-2014-15</t>
+          <t>2015-03-08</t>
         </is>
       </c>
     </row>
@@ -1212,28 +1279,28 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E5" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F5" t="n">
         <v>33</v>
       </c>
       <c r="G5" t="n">
-        <v>0.459</v>
+        <v>0.45</v>
       </c>
       <c r="H5" t="n">
         <v>48.6</v>
       </c>
       <c r="I5" t="n">
-        <v>36.2</v>
+        <v>36.1</v>
       </c>
       <c r="J5" t="n">
-        <v>84.40000000000001</v>
+        <v>84.5</v>
       </c>
       <c r="K5" t="n">
-        <v>0.428</v>
+        <v>0.427</v>
       </c>
       <c r="L5" t="n">
         <v>5.8</v>
@@ -1248,22 +1315,22 @@
         <v>17.1</v>
       </c>
       <c r="P5" t="n">
-        <v>23</v>
+        <v>23.1</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.743</v>
+        <v>0.74</v>
       </c>
       <c r="R5" t="n">
-        <v>10</v>
+        <v>10.1</v>
       </c>
       <c r="S5" t="n">
         <v>34.2</v>
       </c>
       <c r="T5" t="n">
-        <v>44.2</v>
+        <v>44.3</v>
       </c>
       <c r="U5" t="n">
-        <v>20.9</v>
+        <v>20.7</v>
       </c>
       <c r="V5" t="n">
         <v>12</v>
@@ -1281,25 +1348,25 @@
         <v>18.6</v>
       </c>
       <c r="AA5" t="n">
-        <v>21.1</v>
+        <v>21.2</v>
       </c>
       <c r="AB5" t="n">
-        <v>95.3</v>
+        <v>95.09999999999999</v>
       </c>
       <c r="AC5" t="n">
-        <v>-1.5</v>
+        <v>-1.7</v>
       </c>
       <c r="AD5" t="n">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="AE5" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF5" t="n">
         <v>17</v>
       </c>
       <c r="AG5" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AH5" t="n">
         <v>5</v>
@@ -1311,7 +1378,7 @@
         <v>10</v>
       </c>
       <c r="AK5" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AL5" t="n">
         <v>27</v>
@@ -1329,7 +1396,7 @@
         <v>15</v>
       </c>
       <c r="AQ5" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AR5" t="n">
         <v>25</v>
@@ -1341,10 +1408,10 @@
         <v>9</v>
       </c>
       <c r="AU5" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AV5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AW5" t="n">
         <v>30</v>
@@ -1356,16 +1423,16 @@
         <v>22</v>
       </c>
       <c r="AZ5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BA5" t="n">
         <v>6</v>
       </c>
       <c r="BB5" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="BC5" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BD5" t="n">
         <v>10</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>3-8-2014-15</t>
+          <t>2015-03-08</t>
         </is>
       </c>
     </row>
@@ -1394,61 +1461,61 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E6" t="n">
         <v>39</v>
       </c>
       <c r="F6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G6" t="n">
-        <v>0.609</v>
+        <v>0.619</v>
       </c>
       <c r="H6" t="n">
-        <v>48.5</v>
+        <v>48.6</v>
       </c>
       <c r="I6" t="n">
         <v>36.6</v>
       </c>
       <c r="J6" t="n">
-        <v>83.2</v>
+        <v>83.40000000000001</v>
       </c>
       <c r="K6" t="n">
-        <v>0.44</v>
+        <v>0.439</v>
       </c>
       <c r="L6" t="n">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="M6" t="n">
-        <v>21.7</v>
+        <v>21.8</v>
       </c>
       <c r="N6" t="n">
         <v>0.352</v>
       </c>
       <c r="O6" t="n">
-        <v>20.3</v>
+        <v>20.2</v>
       </c>
       <c r="P6" t="n">
         <v>25.7</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.787</v>
+        <v>0.785</v>
       </c>
       <c r="R6" t="n">
-        <v>12.2</v>
+        <v>12.3</v>
       </c>
       <c r="S6" t="n">
-        <v>33.8</v>
+        <v>33.7</v>
       </c>
       <c r="T6" t="n">
         <v>46</v>
       </c>
       <c r="U6" t="n">
-        <v>21.6</v>
+        <v>21.7</v>
       </c>
       <c r="V6" t="n">
-        <v>14.1</v>
+        <v>14</v>
       </c>
       <c r="W6" t="n">
         <v>6.1</v>
@@ -1460,28 +1527,28 @@
         <v>5.3</v>
       </c>
       <c r="Z6" t="n">
-        <v>18.4</v>
+        <v>18.3</v>
       </c>
       <c r="AA6" t="n">
         <v>21.6</v>
       </c>
       <c r="AB6" t="n">
-        <v>101.1</v>
+        <v>101</v>
       </c>
       <c r="AC6" t="n">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="AD6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AE6" t="n">
         <v>9</v>
       </c>
       <c r="AF6" t="n">
+        <v>8</v>
+      </c>
+      <c r="AG6" t="n">
         <v>9</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>10</v>
       </c>
       <c r="AH6" t="n">
         <v>9</v>
@@ -1490,10 +1557,10 @@
         <v>23</v>
       </c>
       <c r="AJ6" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AK6" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AL6" t="n">
         <v>14</v>
@@ -1514,10 +1581,10 @@
         <v>2</v>
       </c>
       <c r="AR6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AS6" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AT6" t="n">
         <v>2</v>
@@ -1526,7 +1593,7 @@
         <v>14</v>
       </c>
       <c r="AV6" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AW6" t="n">
         <v>29</v>
@@ -1535,7 +1602,7 @@
         <v>1</v>
       </c>
       <c r="AY6" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AZ6" t="n">
         <v>2</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>3-8-2014-15</t>
+          <t>2015-03-08</t>
         </is>
       </c>
     </row>
@@ -1657,25 +1724,25 @@
         <v>1</v>
       </c>
       <c r="AE7" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AF7" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AG7" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AH7" t="n">
         <v>29</v>
       </c>
       <c r="AI7" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AJ7" t="n">
         <v>23</v>
       </c>
       <c r="AK7" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AL7" t="n">
         <v>6</v>
@@ -1684,13 +1751,13 @@
         <v>4</v>
       </c>
       <c r="AN7" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AO7" t="n">
         <v>6</v>
       </c>
       <c r="AP7" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AQ7" t="n">
         <v>17</v>
@@ -1699,7 +1766,7 @@
         <v>11</v>
       </c>
       <c r="AS7" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AT7" t="n">
         <v>17</v>
@@ -1717,7 +1784,7 @@
         <v>26</v>
       </c>
       <c r="AY7" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AZ7" t="n">
         <v>3</v>
@@ -1729,7 +1796,7 @@
         <v>7</v>
       </c>
       <c r="BC7" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="BD7" t="n">
         <v>10</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>3-8-2014-15</t>
+          <t>2015-03-08</t>
         </is>
       </c>
     </row>
@@ -1761,13 +1828,13 @@
         <v>64</v>
       </c>
       <c r="E8" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F8" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G8" t="n">
-        <v>0.641</v>
+        <v>0.625</v>
       </c>
       <c r="H8" t="n">
         <v>48.5</v>
@@ -1782,13 +1849,13 @@
         <v>0.46</v>
       </c>
       <c r="L8" t="n">
-        <v>9.300000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="M8" t="n">
-        <v>26.4</v>
+        <v>26.3</v>
       </c>
       <c r="N8" t="n">
-        <v>0.35</v>
+        <v>0.351</v>
       </c>
       <c r="O8" t="n">
         <v>16.5</v>
@@ -1797,28 +1864,28 @@
         <v>21.6</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.761</v>
+        <v>0.764</v>
       </c>
       <c r="R8" t="n">
-        <v>10.4</v>
+        <v>10.5</v>
       </c>
       <c r="S8" t="n">
-        <v>31.8</v>
+        <v>31.7</v>
       </c>
       <c r="T8" t="n">
         <v>42.2</v>
       </c>
       <c r="U8" t="n">
-        <v>22.5</v>
+        <v>22.4</v>
       </c>
       <c r="V8" t="n">
         <v>12.6</v>
       </c>
       <c r="W8" t="n">
-        <v>8.4</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="X8" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="Y8" t="n">
         <v>3.8</v>
@@ -1827,25 +1894,25 @@
         <v>19.6</v>
       </c>
       <c r="AA8" t="n">
-        <v>21.6</v>
+        <v>21.5</v>
       </c>
       <c r="AB8" t="n">
         <v>104.5</v>
       </c>
       <c r="AC8" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="AD8" t="n">
         <v>2</v>
       </c>
       <c r="AE8" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AF8" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AG8" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AH8" t="n">
         <v>15</v>
@@ -1860,7 +1927,7 @@
         <v>6</v>
       </c>
       <c r="AL8" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AM8" t="n">
         <v>6</v>
@@ -1875,16 +1942,16 @@
         <v>23</v>
       </c>
       <c r="AQ8" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AR8" t="n">
         <v>20</v>
       </c>
       <c r="AS8" t="n">
+        <v>24</v>
+      </c>
+      <c r="AT8" t="n">
         <v>23</v>
-      </c>
-      <c r="AT8" t="n">
-        <v>22</v>
       </c>
       <c r="AU8" t="n">
         <v>8</v>
@@ -1896,7 +1963,7 @@
         <v>9</v>
       </c>
       <c r="AX8" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AY8" t="n">
         <v>4</v>
@@ -1905,13 +1972,13 @@
         <v>12</v>
       </c>
       <c r="BA8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BB8" t="n">
         <v>4</v>
       </c>
       <c r="BC8" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BD8" t="n">
         <v>10</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>3-8-2014-15</t>
+          <t>2015-03-08</t>
         </is>
       </c>
     </row>
@@ -2018,7 +2085,7 @@
         <v>-4.5</v>
       </c>
       <c r="AD9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AE9" t="n">
         <v>24</v>
@@ -2054,7 +2121,7 @@
         <v>10</v>
       </c>
       <c r="AP9" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AQ9" t="n">
         <v>24</v>
@@ -2069,7 +2136,7 @@
         <v>8</v>
       </c>
       <c r="AU9" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AV9" t="n">
         <v>13</v>
@@ -2078,7 +2145,7 @@
         <v>17</v>
       </c>
       <c r="AX9" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AY9" t="n">
         <v>29</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>3-8-2014-15</t>
+          <t>2015-03-08</t>
         </is>
       </c>
     </row>
@@ -2122,16 +2189,16 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E10" t="n">
         <v>23</v>
       </c>
       <c r="F10" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G10" t="n">
-        <v>0.371</v>
+        <v>0.377</v>
       </c>
       <c r="H10" t="n">
         <v>48.4</v>
@@ -2140,34 +2207,34 @@
         <v>36.7</v>
       </c>
       <c r="J10" t="n">
-        <v>86</v>
+        <v>85.90000000000001</v>
       </c>
       <c r="K10" t="n">
         <v>0.427</v>
       </c>
       <c r="L10" t="n">
-        <v>8.4</v>
+        <v>8.5</v>
       </c>
       <c r="M10" t="n">
-        <v>25</v>
+        <v>25.2</v>
       </c>
       <c r="N10" t="n">
-        <v>0.337</v>
+        <v>0.338</v>
       </c>
       <c r="O10" t="n">
-        <v>16.5</v>
+        <v>16.4</v>
       </c>
       <c r="P10" t="n">
-        <v>23.3</v>
+        <v>23.2</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.707</v>
+        <v>0.705</v>
       </c>
       <c r="R10" t="n">
         <v>13</v>
       </c>
       <c r="S10" t="n">
-        <v>32.5</v>
+        <v>32.6</v>
       </c>
       <c r="T10" t="n">
         <v>45.5</v>
@@ -2188,19 +2255,19 @@
         <v>5.1</v>
       </c>
       <c r="Z10" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="AA10" t="n">
         <v>20</v>
       </c>
       <c r="AB10" t="n">
-        <v>98.3</v>
+        <v>98.2</v>
       </c>
       <c r="AC10" t="n">
-        <v>-1.5</v>
+        <v>-1.4</v>
       </c>
       <c r="AD10" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="AE10" t="n">
         <v>23</v>
@@ -2212,16 +2279,16 @@
         <v>23</v>
       </c>
       <c r="AH10" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AI10" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AJ10" t="n">
         <v>7</v>
       </c>
       <c r="AK10" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AL10" t="n">
         <v>10</v>
@@ -2233,7 +2300,7 @@
         <v>20</v>
       </c>
       <c r="AO10" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AP10" t="n">
         <v>14</v>
@@ -2254,13 +2321,13 @@
         <v>19</v>
       </c>
       <c r="AV10" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AW10" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AX10" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AY10" t="n">
         <v>18</v>
@@ -2269,13 +2336,13 @@
         <v>9</v>
       </c>
       <c r="BA10" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BB10" t="n">
         <v>20</v>
       </c>
       <c r="BC10" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BD10" t="n">
         <v>10</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>3-8-2014-15</t>
+          <t>2015-03-08</t>
         </is>
       </c>
     </row>
@@ -2304,16 +2371,16 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E11" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F11" t="n">
         <v>12</v>
       </c>
       <c r="G11" t="n">
-        <v>0.803</v>
+        <v>0.8</v>
       </c>
       <c r="H11" t="n">
         <v>48.2</v>
@@ -2322,19 +2389,19 @@
         <v>41.5</v>
       </c>
       <c r="J11" t="n">
-        <v>86.90000000000001</v>
+        <v>87</v>
       </c>
       <c r="K11" t="n">
-        <v>0.478</v>
+        <v>0.477</v>
       </c>
       <c r="L11" t="n">
         <v>10.7</v>
       </c>
       <c r="M11" t="n">
-        <v>27.2</v>
+        <v>27.3</v>
       </c>
       <c r="N11" t="n">
-        <v>0.391</v>
+        <v>0.39</v>
       </c>
       <c r="O11" t="n">
         <v>16.2</v>
@@ -2343,49 +2410,49 @@
         <v>21.1</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.767</v>
+        <v>0.769</v>
       </c>
       <c r="R11" t="n">
-        <v>10.3</v>
+        <v>10.4</v>
       </c>
       <c r="S11" t="n">
-        <v>34.5</v>
+        <v>34.6</v>
       </c>
       <c r="T11" t="n">
-        <v>44.8</v>
+        <v>44.9</v>
       </c>
       <c r="U11" t="n">
-        <v>27.1</v>
+        <v>27.2</v>
       </c>
       <c r="V11" t="n">
         <v>14.7</v>
       </c>
       <c r="W11" t="n">
-        <v>9.5</v>
+        <v>9.4</v>
       </c>
       <c r="X11" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="Y11" t="n">
         <v>3.4</v>
       </c>
       <c r="Z11" t="n">
-        <v>19.9</v>
+        <v>20</v>
       </c>
       <c r="AA11" t="n">
-        <v>19</v>
+        <v>18.9</v>
       </c>
       <c r="AB11" t="n">
-        <v>109.8</v>
+        <v>109.9</v>
       </c>
       <c r="AC11" t="n">
-        <v>10.1</v>
+        <v>10.2</v>
       </c>
       <c r="AD11" t="n">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="AE11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AF11" t="n">
         <v>1</v>
@@ -2415,16 +2482,16 @@
         <v>1</v>
       </c>
       <c r="AO11" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AP11" t="n">
         <v>25</v>
       </c>
       <c r="AQ11" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AR11" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AS11" t="n">
         <v>3</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>3-8-2014-15</t>
+          <t>2015-03-08</t>
         </is>
       </c>
     </row>
@@ -2486,25 +2553,25 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E12" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F12" t="n">
         <v>20</v>
       </c>
       <c r="G12" t="n">
-        <v>0.677</v>
+        <v>0.6830000000000001</v>
       </c>
       <c r="H12" t="n">
         <v>48.4</v>
       </c>
       <c r="I12" t="n">
-        <v>37.1</v>
+        <v>37</v>
       </c>
       <c r="J12" t="n">
-        <v>84.40000000000001</v>
+        <v>84.2</v>
       </c>
       <c r="K12" t="n">
         <v>0.439</v>
@@ -2513,25 +2580,25 @@
         <v>11.6</v>
       </c>
       <c r="M12" t="n">
-        <v>33.7</v>
+        <v>33.6</v>
       </c>
       <c r="N12" t="n">
-        <v>0.345</v>
+        <v>0.346</v>
       </c>
       <c r="O12" t="n">
-        <v>17.5</v>
+        <v>17.7</v>
       </c>
       <c r="P12" t="n">
-        <v>24.2</v>
+        <v>24.6</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.722</v>
+        <v>0.72</v>
       </c>
       <c r="R12" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="S12" t="n">
-        <v>31.7</v>
+        <v>31.8</v>
       </c>
       <c r="T12" t="n">
         <v>43.8</v>
@@ -2549,22 +2616,22 @@
         <v>4.8</v>
       </c>
       <c r="Y12" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="Z12" t="n">
-        <v>22.3</v>
+        <v>22.4</v>
       </c>
       <c r="AA12" t="n">
-        <v>20.5</v>
+        <v>20.6</v>
       </c>
       <c r="AB12" t="n">
-        <v>103.2</v>
+        <v>103.3</v>
       </c>
       <c r="AC12" t="n">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="AD12" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="AE12" t="n">
         <v>4</v>
@@ -2576,16 +2643,16 @@
         <v>4</v>
       </c>
       <c r="AH12" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AI12" t="n">
         <v>19</v>
       </c>
       <c r="AJ12" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AK12" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AL12" t="n">
         <v>1</v>
@@ -2594,13 +2661,13 @@
         <v>1</v>
       </c>
       <c r="AN12" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AO12" t="n">
         <v>11</v>
       </c>
       <c r="AP12" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AQ12" t="n">
         <v>27</v>
@@ -2609,10 +2676,10 @@
         <v>6</v>
       </c>
       <c r="AS12" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AT12" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AU12" t="n">
         <v>9</v>
@@ -2621,25 +2688,25 @@
         <v>29</v>
       </c>
       <c r="AW12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AX12" t="n">
         <v>12</v>
       </c>
       <c r="AY12" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AZ12" t="n">
         <v>29</v>
       </c>
       <c r="BA12" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BB12" t="n">
         <v>6</v>
       </c>
       <c r="BC12" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BD12" t="n">
         <v>10</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>3-8-2014-15</t>
+          <t>2015-03-08</t>
         </is>
       </c>
     </row>
@@ -2746,7 +2813,7 @@
         <v>0</v>
       </c>
       <c r="AD13" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AE13" t="n">
         <v>17</v>
@@ -2755,7 +2822,7 @@
         <v>18</v>
       </c>
       <c r="AG13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AH13" t="n">
         <v>19</v>
@@ -2764,13 +2831,13 @@
         <v>24</v>
       </c>
       <c r="AJ13" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AK13" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AL13" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AM13" t="n">
         <v>18</v>
@@ -2782,10 +2849,10 @@
         <v>19</v>
       </c>
       <c r="AP13" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AQ13" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AR13" t="n">
         <v>19</v>
@@ -2800,13 +2867,13 @@
         <v>18</v>
       </c>
       <c r="AV13" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AW13" t="n">
         <v>28</v>
       </c>
       <c r="AX13" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AY13" t="n">
         <v>17</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>3-8-2014-15</t>
+          <t>2015-03-08</t>
         </is>
       </c>
     </row>
@@ -2850,16 +2917,16 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E14" t="n">
         <v>40</v>
       </c>
       <c r="F14" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G14" t="n">
-        <v>0.635</v>
+        <v>0.645</v>
       </c>
       <c r="H14" t="n">
         <v>48.2</v>
@@ -2877,16 +2944,16 @@
         <v>9.699999999999999</v>
       </c>
       <c r="M14" t="n">
-        <v>26.4</v>
+        <v>26.5</v>
       </c>
       <c r="N14" t="n">
-        <v>0.367</v>
+        <v>0.368</v>
       </c>
       <c r="O14" t="n">
-        <v>18</v>
+        <v>18.1</v>
       </c>
       <c r="P14" t="n">
-        <v>25</v>
+        <v>25.2</v>
       </c>
       <c r="Q14" t="n">
         <v>0.718</v>
@@ -2895,7 +2962,7 @@
         <v>9.5</v>
       </c>
       <c r="S14" t="n">
-        <v>32.8</v>
+        <v>32.9</v>
       </c>
       <c r="T14" t="n">
         <v>42.4</v>
@@ -2916,37 +2983,37 @@
         <v>3.2</v>
       </c>
       <c r="Z14" t="n">
-        <v>21.2</v>
+        <v>21.1</v>
       </c>
       <c r="AA14" t="n">
-        <v>21.4</v>
+        <v>21.5</v>
       </c>
       <c r="AB14" t="n">
-        <v>106.3</v>
+        <v>106.4</v>
       </c>
       <c r="AC14" t="n">
-        <v>5.9</v>
+        <v>6.1</v>
       </c>
       <c r="AD14" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="AE14" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AF14" t="n">
         <v>6</v>
       </c>
       <c r="AG14" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AH14" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="AI14" t="n">
         <v>4</v>
       </c>
       <c r="AJ14" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AK14" t="n">
         <v>2</v>
@@ -2982,10 +3049,10 @@
         <v>4</v>
       </c>
       <c r="AV14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AW14" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AX14" t="n">
         <v>9</v>
@@ -2997,7 +3064,7 @@
         <v>20</v>
       </c>
       <c r="BA14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BB14" t="n">
         <v>2</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>3-8-2014-15</t>
+          <t>2015-03-08</t>
         </is>
       </c>
     </row>
@@ -3047,43 +3114,43 @@
         <v>48.7</v>
       </c>
       <c r="I15" t="n">
-        <v>37.7</v>
+        <v>37.5</v>
       </c>
       <c r="J15" t="n">
-        <v>86.3</v>
+        <v>86.2</v>
       </c>
       <c r="K15" t="n">
-        <v>0.437</v>
+        <v>0.435</v>
       </c>
       <c r="L15" t="n">
         <v>6.6</v>
       </c>
       <c r="M15" t="n">
-        <v>19.2</v>
+        <v>19.1</v>
       </c>
       <c r="N15" t="n">
-        <v>0.344</v>
+        <v>0.346</v>
       </c>
       <c r="O15" t="n">
-        <v>17.4</v>
+        <v>17.7</v>
       </c>
       <c r="P15" t="n">
-        <v>23.5</v>
+        <v>23.8</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.741</v>
+        <v>0.743</v>
       </c>
       <c r="R15" t="n">
         <v>11.5</v>
       </c>
       <c r="S15" t="n">
-        <v>32.4</v>
+        <v>32.3</v>
       </c>
       <c r="T15" t="n">
-        <v>44</v>
+        <v>43.8</v>
       </c>
       <c r="U15" t="n">
-        <v>20.9</v>
+        <v>20.8</v>
       </c>
       <c r="V15" t="n">
         <v>12.9</v>
@@ -3092,25 +3159,25 @@
         <v>7.3</v>
       </c>
       <c r="X15" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="Y15" t="n">
         <v>4.6</v>
       </c>
       <c r="Z15" t="n">
-        <v>21.3</v>
+        <v>21.4</v>
       </c>
       <c r="AA15" t="n">
-        <v>19.5</v>
+        <v>19.7</v>
       </c>
       <c r="AB15" t="n">
-        <v>99.5</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="AC15" t="n">
-        <v>-6.2</v>
+        <v>-6.4</v>
       </c>
       <c r="AD15" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AE15" t="n">
         <v>27</v>
@@ -3131,7 +3198,7 @@
         <v>5</v>
       </c>
       <c r="AK15" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AL15" t="n">
         <v>25</v>
@@ -3140,40 +3207,40 @@
         <v>24</v>
       </c>
       <c r="AN15" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AO15" t="n">
         <v>12</v>
       </c>
       <c r="AP15" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AQ15" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AR15" t="n">
         <v>10</v>
       </c>
       <c r="AS15" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AT15" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AU15" t="n">
         <v>20</v>
       </c>
       <c r="AV15" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AW15" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AX15" t="n">
         <v>18</v>
       </c>
       <c r="AY15" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AZ15" t="n">
         <v>24</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>3-8-2014-15</t>
+          <t>2015-03-08</t>
         </is>
       </c>
     </row>
@@ -3292,7 +3359,7 @@
         <v>3.7</v>
       </c>
       <c r="AD16" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AE16" t="n">
         <v>3</v>
@@ -3310,7 +3377,7 @@
         <v>11</v>
       </c>
       <c r="AJ16" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AK16" t="n">
         <v>7</v>
@@ -3322,22 +3389,22 @@
         <v>29</v>
       </c>
       <c r="AN16" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AO16" t="n">
         <v>5</v>
       </c>
       <c r="AP16" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AQ16" t="n">
         <v>5</v>
       </c>
       <c r="AR16" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AS16" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AT16" t="n">
         <v>19</v>
@@ -3361,7 +3428,7 @@
         <v>7</v>
       </c>
       <c r="BA16" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BB16" t="n">
         <v>18</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>3-8-2014-15</t>
+          <t>2015-03-08</t>
         </is>
       </c>
     </row>
@@ -3474,7 +3541,7 @@
         <v>-2.5</v>
       </c>
       <c r="AD17" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AE17" t="n">
         <v>17</v>
@@ -3483,7 +3550,7 @@
         <v>18</v>
       </c>
       <c r="AG17" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AH17" t="n">
         <v>25</v>
@@ -3495,7 +3562,7 @@
         <v>30</v>
       </c>
       <c r="AK17" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AL17" t="n">
         <v>18</v>
@@ -3504,7 +3571,7 @@
         <v>19</v>
       </c>
       <c r="AN17" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AO17" t="n">
         <v>9</v>
@@ -3525,7 +3592,7 @@
         <v>30</v>
       </c>
       <c r="AU17" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AV17" t="n">
         <v>21</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>3-8-2014-15</t>
+          <t>2015-03-08</t>
         </is>
       </c>
     </row>
@@ -3656,22 +3723,22 @@
         <v>1.2</v>
       </c>
       <c r="AD18" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AE18" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AF18" t="n">
         <v>14</v>
       </c>
       <c r="AG18" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AH18" t="n">
         <v>11</v>
       </c>
       <c r="AI18" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AJ18" t="n">
         <v>25</v>
@@ -3695,7 +3762,7 @@
         <v>26</v>
       </c>
       <c r="AQ18" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AR18" t="n">
         <v>24</v>
@@ -3713,7 +3780,7 @@
         <v>28</v>
       </c>
       <c r="AW18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AX18" t="n">
         <v>13</v>
@@ -3722,10 +3789,10 @@
         <v>14</v>
       </c>
       <c r="AZ18" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BA18" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BB18" t="n">
         <v>22</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>3-8-2014-15</t>
+          <t>2015-03-08</t>
         </is>
       </c>
     </row>
@@ -3838,7 +3905,7 @@
         <v>-7.7</v>
       </c>
       <c r="AD19" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AE19" t="n">
         <v>28</v>
@@ -3850,13 +3917,13 @@
         <v>28</v>
       </c>
       <c r="AH19" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AI19" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AJ19" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AK19" t="n">
         <v>25</v>
@@ -3868,7 +3935,7 @@
         <v>30</v>
       </c>
       <c r="AN19" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AO19" t="n">
         <v>3</v>
@@ -3877,7 +3944,7 @@
         <v>2</v>
       </c>
       <c r="AQ19" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AR19" t="n">
         <v>4</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>3-8-2014-15</t>
+          <t>2015-03-08</t>
         </is>
       </c>
     </row>
@@ -3942,67 +4009,67 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E20" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F20" t="n">
         <v>29</v>
       </c>
       <c r="G20" t="n">
-        <v>0.532</v>
+        <v>0.54</v>
       </c>
       <c r="H20" t="n">
         <v>48.2</v>
       </c>
       <c r="I20" t="n">
-        <v>37.7</v>
+        <v>37.8</v>
       </c>
       <c r="J20" t="n">
-        <v>82.7</v>
+        <v>83</v>
       </c>
       <c r="K20" t="n">
-        <v>0.456</v>
+        <v>0.455</v>
       </c>
       <c r="L20" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="M20" t="n">
-        <v>19.3</v>
+        <v>19.2</v>
       </c>
       <c r="N20" t="n">
-        <v>0.357</v>
+        <v>0.356</v>
       </c>
       <c r="O20" t="n">
         <v>17</v>
       </c>
       <c r="P20" t="n">
-        <v>22</v>
+        <v>22.2</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.771</v>
+        <v>0.765</v>
       </c>
       <c r="R20" t="n">
-        <v>11.5</v>
+        <v>11.8</v>
       </c>
       <c r="S20" t="n">
-        <v>31.9</v>
+        <v>32</v>
       </c>
       <c r="T20" t="n">
-        <v>43.4</v>
+        <v>43.7</v>
       </c>
       <c r="U20" t="n">
         <v>21.6</v>
       </c>
       <c r="V20" t="n">
-        <v>13.5</v>
+        <v>13.4</v>
       </c>
       <c r="W20" t="n">
         <v>6.8</v>
       </c>
       <c r="X20" t="n">
-        <v>5.9</v>
+        <v>6.1</v>
       </c>
       <c r="Y20" t="n">
         <v>5.8</v>
@@ -4011,19 +4078,19 @@
         <v>18.7</v>
       </c>
       <c r="AA20" t="n">
-        <v>18.8</v>
+        <v>18.9</v>
       </c>
       <c r="AB20" t="n">
-        <v>99.3</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="AC20" t="n">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="AD20" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="AE20" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AF20" t="n">
         <v>14</v>
@@ -4032,16 +4099,16 @@
         <v>14</v>
       </c>
       <c r="AH20" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="AI20" t="n">
         <v>12</v>
       </c>
       <c r="AJ20" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AK20" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AL20" t="n">
         <v>23</v>
@@ -4059,16 +4126,16 @@
         <v>17</v>
       </c>
       <c r="AQ20" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AR20" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AS20" t="n">
         <v>19</v>
       </c>
       <c r="AT20" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AU20" t="n">
         <v>15</v>
@@ -4077,10 +4144,10 @@
         <v>7</v>
       </c>
       <c r="AW20" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AX20" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AY20" t="n">
         <v>28</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>3-8-2014-15</t>
+          <t>2015-03-08</t>
         </is>
       </c>
     </row>
@@ -4202,7 +4269,7 @@
         <v>-8.699999999999999</v>
       </c>
       <c r="AD21" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AE21" t="n">
         <v>30</v>
@@ -4232,7 +4299,7 @@
         <v>21</v>
       </c>
       <c r="AN21" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AO21" t="n">
         <v>29</v>
@@ -4262,7 +4329,7 @@
         <v>23</v>
       </c>
       <c r="AX21" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AY21" t="n">
         <v>7</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>3-8-2014-15</t>
+          <t>2015-03-08</t>
         </is>
       </c>
     </row>
@@ -4306,16 +4373,16 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E22" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F22" t="n">
         <v>28</v>
       </c>
       <c r="G22" t="n">
-        <v>0.556</v>
+        <v>0.548</v>
       </c>
       <c r="H22" t="n">
         <v>48.5</v>
@@ -4327,22 +4394,22 @@
         <v>86.2</v>
       </c>
       <c r="K22" t="n">
-        <v>0.445</v>
+        <v>0.444</v>
       </c>
       <c r="L22" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="M22" t="n">
         <v>22.5</v>
       </c>
       <c r="N22" t="n">
-        <v>0.327</v>
+        <v>0.328</v>
       </c>
       <c r="O22" t="n">
         <v>18.2</v>
       </c>
       <c r="P22" t="n">
-        <v>24</v>
+        <v>23.9</v>
       </c>
       <c r="Q22" t="n">
         <v>0.761</v>
@@ -4357,46 +4424,46 @@
         <v>47.6</v>
       </c>
       <c r="U22" t="n">
-        <v>20.7</v>
+        <v>20.5</v>
       </c>
       <c r="V22" t="n">
-        <v>14.7</v>
+        <v>14.6</v>
       </c>
       <c r="W22" t="n">
         <v>7.2</v>
       </c>
       <c r="X22" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="Y22" t="n">
         <v>4.6</v>
       </c>
       <c r="Z22" t="n">
-        <v>22</v>
+        <v>22.2</v>
       </c>
       <c r="AA22" t="n">
         <v>20</v>
       </c>
       <c r="AB22" t="n">
-        <v>102.3</v>
+        <v>102.2</v>
       </c>
       <c r="AC22" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="AD22" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="AE22" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF22" t="n">
         <v>12</v>
       </c>
       <c r="AG22" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH22" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AI22" t="n">
         <v>6</v>
@@ -4426,7 +4493,7 @@
         <v>16</v>
       </c>
       <c r="AR22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AS22" t="n">
         <v>1</v>
@@ -4435,7 +4502,7 @@
         <v>1</v>
       </c>
       <c r="AU22" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AV22" t="n">
         <v>19</v>
@@ -4444,16 +4511,16 @@
         <v>22</v>
       </c>
       <c r="AX22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AY22" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AZ22" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="BA22" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BB22" t="n">
         <v>10</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>3-8-2014-15</t>
+          <t>2015-03-08</t>
         </is>
       </c>
     </row>
@@ -4491,43 +4558,43 @@
         <v>63</v>
       </c>
       <c r="E23" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F23" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G23" t="n">
-        <v>0.333</v>
+        <v>0.317</v>
       </c>
       <c r="H23" t="n">
         <v>48.2</v>
       </c>
       <c r="I23" t="n">
-        <v>37.5</v>
+        <v>37.4</v>
       </c>
       <c r="J23" t="n">
-        <v>81.90000000000001</v>
+        <v>81.8</v>
       </c>
       <c r="K23" t="n">
-        <v>0.458</v>
+        <v>0.457</v>
       </c>
       <c r="L23" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="M23" t="n">
-        <v>19.7</v>
+        <v>19.5</v>
       </c>
       <c r="N23" t="n">
-        <v>0.354</v>
+        <v>0.355</v>
       </c>
       <c r="O23" t="n">
-        <v>14.2</v>
+        <v>14.1</v>
       </c>
       <c r="P23" t="n">
-        <v>19.4</v>
+        <v>19.3</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.729</v>
+        <v>0.731</v>
       </c>
       <c r="R23" t="n">
         <v>9.1</v>
@@ -4539,37 +4606,37 @@
         <v>40.9</v>
       </c>
       <c r="U23" t="n">
-        <v>20.5</v>
+        <v>20.4</v>
       </c>
       <c r="V23" t="n">
         <v>15</v>
       </c>
       <c r="W23" t="n">
-        <v>7.7</v>
+        <v>7.6</v>
       </c>
       <c r="X23" t="n">
         <v>3.7</v>
       </c>
       <c r="Y23" t="n">
-        <v>5.2</v>
+        <v>5.4</v>
       </c>
       <c r="Z23" t="n">
-        <v>21.2</v>
+        <v>21.3</v>
       </c>
       <c r="AA23" t="n">
-        <v>18.3</v>
+        <v>18.2</v>
       </c>
       <c r="AB23" t="n">
-        <v>96.09999999999999</v>
+        <v>95.8</v>
       </c>
       <c r="AC23" t="n">
-        <v>-5.1</v>
+        <v>-5.5</v>
       </c>
       <c r="AD23" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AE23" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AF23" t="n">
         <v>26</v>
@@ -4581,7 +4648,7 @@
         <v>21</v>
       </c>
       <c r="AI23" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AJ23" t="n">
         <v>24</v>
@@ -4590,13 +4657,13 @@
         <v>8</v>
       </c>
       <c r="AL23" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AM23" t="n">
         <v>22</v>
       </c>
       <c r="AN23" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AO23" t="n">
         <v>30</v>
@@ -4629,13 +4696,13 @@
         <v>30</v>
       </c>
       <c r="AY23" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AZ23" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BA23" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="BB23" t="n">
         <v>25</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>3-8-2014-15</t>
+          <t>2015-03-08</t>
         </is>
       </c>
     </row>
@@ -4748,7 +4815,7 @@
         <v>-10.1</v>
       </c>
       <c r="AD24" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AE24" t="n">
         <v>28</v>
@@ -4781,7 +4848,7 @@
         <v>28</v>
       </c>
       <c r="AO24" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AP24" t="n">
         <v>9</v>
@@ -4790,7 +4857,7 @@
         <v>30</v>
       </c>
       <c r="AR24" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AS24" t="n">
         <v>26</v>
@@ -4808,13 +4875,13 @@
         <v>1</v>
       </c>
       <c r="AX24" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AY24" t="n">
         <v>25</v>
       </c>
       <c r="AZ24" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BA24" t="n">
         <v>15</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>3-8-2014-15</t>
+          <t>2015-03-08</t>
         </is>
       </c>
     </row>
@@ -4933,7 +5000,7 @@
         <v>2</v>
       </c>
       <c r="AE25" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AF25" t="n">
         <v>16</v>
@@ -4966,7 +5033,7 @@
         <v>16</v>
       </c>
       <c r="AP25" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AQ25" t="n">
         <v>6</v>
@@ -4975,13 +5042,13 @@
         <v>14</v>
       </c>
       <c r="AS25" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AT25" t="n">
         <v>18</v>
       </c>
       <c r="AU25" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AV25" t="n">
         <v>24</v>
@@ -4996,7 +5063,7 @@
         <v>5</v>
       </c>
       <c r="AZ25" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="BA25" t="n">
         <v>12</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>3-8-2014-15</t>
+          <t>2015-03-08</t>
         </is>
       </c>
     </row>
@@ -5112,7 +5179,7 @@
         <v>5</v>
       </c>
       <c r="AD26" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AE26" t="n">
         <v>5</v>
@@ -5124,13 +5191,13 @@
         <v>5</v>
       </c>
       <c r="AH26" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AI26" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AJ26" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AK26" t="n">
         <v>19</v>
@@ -5166,10 +5233,10 @@
         <v>10</v>
       </c>
       <c r="AV26" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AW26" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AX26" t="n">
         <v>10</v>
@@ -5178,7 +5245,7 @@
         <v>3</v>
       </c>
       <c r="AZ26" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BA26" t="n">
         <v>24</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>3-8-2014-15</t>
+          <t>2015-03-08</t>
         </is>
       </c>
     </row>
@@ -5294,7 +5361,7 @@
         <v>-4</v>
       </c>
       <c r="AD27" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AE27" t="n">
         <v>25</v>
@@ -5306,7 +5373,7 @@
         <v>25</v>
       </c>
       <c r="AH27" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AI27" t="n">
         <v>25</v>
@@ -5324,7 +5391,7 @@
         <v>28</v>
       </c>
       <c r="AN27" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AO27" t="n">
         <v>1</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>3-8-2014-15</t>
+          <t>2015-03-08</t>
         </is>
       </c>
     </row>
@@ -5413,28 +5480,28 @@
         <v>48.7</v>
       </c>
       <c r="I28" t="n">
-        <v>38.2</v>
+        <v>38.1</v>
       </c>
       <c r="J28" t="n">
-        <v>83.8</v>
+        <v>83.40000000000001</v>
       </c>
       <c r="K28" t="n">
         <v>0.456</v>
       </c>
       <c r="L28" t="n">
-        <v>8.199999999999999</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="M28" t="n">
-        <v>22.9</v>
+        <v>23</v>
       </c>
       <c r="N28" t="n">
-        <v>0.359</v>
+        <v>0.361</v>
       </c>
       <c r="O28" t="n">
-        <v>16.7</v>
+        <v>16.6</v>
       </c>
       <c r="P28" t="n">
-        <v>21.7</v>
+        <v>21.6</v>
       </c>
       <c r="Q28" t="n">
         <v>0.771</v>
@@ -5446,16 +5513,16 @@
         <v>33.7</v>
       </c>
       <c r="T28" t="n">
-        <v>43.6</v>
+        <v>43.7</v>
       </c>
       <c r="U28" t="n">
-        <v>23.9</v>
+        <v>24</v>
       </c>
       <c r="V28" t="n">
-        <v>14</v>
+        <v>14.2</v>
       </c>
       <c r="W28" t="n">
-        <v>7.8</v>
+        <v>7.7</v>
       </c>
       <c r="X28" t="n">
         <v>5.5</v>
@@ -5467,22 +5534,22 @@
         <v>19.4</v>
       </c>
       <c r="AA28" t="n">
-        <v>19.9</v>
+        <v>19.8</v>
       </c>
       <c r="AB28" t="n">
-        <v>101.3</v>
+        <v>101.1</v>
       </c>
       <c r="AC28" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="AD28" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AE28" t="n">
         <v>10</v>
       </c>
       <c r="AF28" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AG28" t="n">
         <v>8</v>
@@ -5491,13 +5558,13 @@
         <v>1</v>
       </c>
       <c r="AI28" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AJ28" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AK28" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AL28" t="n">
         <v>11</v>
@@ -5521,7 +5588,7 @@
         <v>26</v>
       </c>
       <c r="AS28" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AT28" t="n">
         <v>15</v>
@@ -5530,28 +5597,28 @@
         <v>6</v>
       </c>
       <c r="AV28" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AW28" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AX28" t="n">
         <v>7</v>
       </c>
       <c r="AY28" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AZ28" t="n">
         <v>10</v>
       </c>
       <c r="BA28" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="BB28" t="n">
         <v>11</v>
       </c>
       <c r="BC28" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BD28" t="n">
         <v>10</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>3-8-2014-15</t>
+          <t>2015-03-08</t>
         </is>
       </c>
     </row>
@@ -5580,16 +5647,16 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E29" t="n">
         <v>38</v>
       </c>
       <c r="F29" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G29" t="n">
-        <v>0.603</v>
+        <v>0.613</v>
       </c>
       <c r="H29" t="n">
         <v>48.5</v>
@@ -5598,82 +5665,82 @@
         <v>38.1</v>
       </c>
       <c r="J29" t="n">
-        <v>84.09999999999999</v>
+        <v>83.90000000000001</v>
       </c>
       <c r="K29" t="n">
-        <v>0.453</v>
+        <v>0.454</v>
       </c>
       <c r="L29" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="M29" t="n">
-        <v>25.3</v>
+        <v>25.2</v>
       </c>
       <c r="N29" t="n">
-        <v>0.348</v>
+        <v>0.347</v>
       </c>
       <c r="O29" t="n">
-        <v>19.4</v>
+        <v>19.5</v>
       </c>
       <c r="P29" t="n">
-        <v>24.6</v>
+        <v>24.9</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.786</v>
+        <v>0.785</v>
       </c>
       <c r="R29" t="n">
         <v>10.9</v>
       </c>
       <c r="S29" t="n">
-        <v>30.5</v>
+        <v>30.6</v>
       </c>
       <c r="T29" t="n">
-        <v>41.3</v>
+        <v>41.5</v>
       </c>
       <c r="U29" t="n">
-        <v>20.8</v>
+        <v>20.7</v>
       </c>
       <c r="V29" t="n">
-        <v>12.9</v>
+        <v>13</v>
       </c>
       <c r="W29" t="n">
-        <v>7.8</v>
+        <v>7.7</v>
       </c>
       <c r="X29" t="n">
         <v>4.5</v>
       </c>
       <c r="Y29" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="Z29" t="n">
         <v>21.1</v>
       </c>
       <c r="AA29" t="n">
-        <v>20.7</v>
+        <v>20.8</v>
       </c>
       <c r="AB29" t="n">
         <v>104.4</v>
       </c>
       <c r="AC29" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="AD29" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="AE29" t="n">
         <v>10</v>
       </c>
       <c r="AF29" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AG29" t="n">
         <v>11</v>
       </c>
       <c r="AH29" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AI29" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AJ29" t="n">
         <v>13</v>
@@ -5709,19 +5776,19 @@
         <v>26</v>
       </c>
       <c r="AU29" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AV29" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AW29" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AX29" t="n">
         <v>19</v>
       </c>
       <c r="AY29" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AZ29" t="n">
         <v>18</v>
@@ -5733,7 +5800,7 @@
         <v>5</v>
       </c>
       <c r="BC29" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BD29" t="n">
         <v>10</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>3-8-2014-15</t>
+          <t>2015-03-08</t>
         </is>
       </c>
     </row>
@@ -5762,16 +5829,16 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E30" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F30" t="n">
         <v>36</v>
       </c>
       <c r="G30" t="n">
-        <v>0.419</v>
+        <v>0.41</v>
       </c>
       <c r="H30" t="n">
         <v>48</v>
@@ -5780,19 +5847,19 @@
         <v>35.6</v>
       </c>
       <c r="J30" t="n">
-        <v>79.09999999999999</v>
+        <v>79.3</v>
       </c>
       <c r="K30" t="n">
         <v>0.449</v>
       </c>
       <c r="L30" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="M30" t="n">
         <v>20.9</v>
       </c>
       <c r="N30" t="n">
-        <v>0.343</v>
+        <v>0.341</v>
       </c>
       <c r="O30" t="n">
         <v>16.9</v>
@@ -5801,7 +5868,7 @@
         <v>23</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.732</v>
+        <v>0.731</v>
       </c>
       <c r="R30" t="n">
         <v>11.8</v>
@@ -5810,10 +5877,10 @@
         <v>31.8</v>
       </c>
       <c r="T30" t="n">
-        <v>43.6</v>
+        <v>43.7</v>
       </c>
       <c r="U30" t="n">
-        <v>20.2</v>
+        <v>20.1</v>
       </c>
       <c r="V30" t="n">
         <v>15.4</v>
@@ -5825,37 +5892,37 @@
         <v>6</v>
       </c>
       <c r="Y30" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="Z30" t="n">
-        <v>19</v>
+        <v>19.1</v>
       </c>
       <c r="AA30" t="n">
-        <v>19.2</v>
+        <v>19.3</v>
       </c>
       <c r="AB30" t="n">
         <v>95.2</v>
       </c>
       <c r="AC30" t="n">
-        <v>-0.9</v>
+        <v>-1</v>
       </c>
       <c r="AD30" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="AE30" t="n">
         <v>20</v>
       </c>
       <c r="AF30" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AG30" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AH30" t="n">
         <v>30</v>
       </c>
       <c r="AI30" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AJ30" t="n">
         <v>29</v>
@@ -5870,7 +5937,7 @@
         <v>17</v>
       </c>
       <c r="AN30" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AO30" t="n">
         <v>17</v>
@@ -5885,13 +5952,13 @@
         <v>7</v>
       </c>
       <c r="AS30" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AT30" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AU30" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AV30" t="n">
         <v>26</v>
@@ -5903,7 +5970,7 @@
         <v>5</v>
       </c>
       <c r="AY30" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AZ30" t="n">
         <v>8</v>
@@ -5912,7 +5979,7 @@
         <v>25</v>
       </c>
       <c r="BB30" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="BC30" t="n">
         <v>18</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>3-8-2014-15</t>
+          <t>2015-03-08</t>
         </is>
       </c>
     </row>
@@ -6022,7 +6089,7 @@
         <v>0.5</v>
       </c>
       <c r="AD31" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AE31" t="n">
         <v>12</v>
@@ -6034,7 +6101,7 @@
         <v>12</v>
       </c>
       <c r="AH31" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AI31" t="n">
         <v>7</v>
@@ -6061,7 +6128,7 @@
         <v>24</v>
       </c>
       <c r="AQ31" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AR31" t="n">
         <v>18</v>
@@ -6079,7 +6146,7 @@
         <v>25</v>
       </c>
       <c r="AW31" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AX31" t="n">
         <v>17</v>
@@ -6091,7 +6158,7 @@
         <v>19</v>
       </c>
       <c r="BA31" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BB31" t="n">
         <v>19</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>3-8-2014-15</t>
+          <t>2015-03-08</t>
         </is>
       </c>
     </row>
